--- a/database/OLD/RAPRO22232023/FW/FW.xlsx
+++ b/database/OLD/RAPRO22232023/FW/FW.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -11668,7 +11668,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Libertad</t>
+          <t>Libertad (ECU)</t>
         </is>
       </c>
       <c r="C250" t="n">
@@ -12793,7 +12793,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Libertad</t>
+          <t>Libertad (ECU)</t>
         </is>
       </c>
       <c r="C275" t="n">
@@ -13108,7 +13108,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Libertad</t>
+          <t>Libertad (ECU)</t>
         </is>
       </c>
       <c r="C282" t="n">
@@ -26068,7 +26068,7 @@
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Fortaleza (COL)</t>
         </is>
       </c>
       <c r="C570" t="n">
@@ -28273,7 +28273,7 @@
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Fortaleza (COL)</t>
         </is>
       </c>
       <c r="C619" t="n">
@@ -28633,7 +28633,7 @@
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Fortaleza (COL)</t>
         </is>
       </c>
       <c r="C627" t="n">
@@ -28948,7 +28948,7 @@
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Fortaleza (COL)</t>
         </is>
       </c>
       <c r="C634" t="n">
@@ -42268,7 +42268,7 @@
       </c>
       <c r="B930" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Liverpool (URU)</t>
         </is>
       </c>
       <c r="C930" t="n">
@@ -42358,7 +42358,7 @@
       </c>
       <c r="B932" t="inlineStr">
         <is>
-          <t>River Plate</t>
+          <t>River Plate (URU)</t>
         </is>
       </c>
       <c r="C932" t="n">
@@ -42853,7 +42853,7 @@
       </c>
       <c r="B943" t="inlineStr">
         <is>
-          <t>River Plate</t>
+          <t>River Plate (URU)</t>
         </is>
       </c>
       <c r="C943" t="n">
@@ -42988,7 +42988,7 @@
       </c>
       <c r="B946" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Liverpool (URU)</t>
         </is>
       </c>
       <c r="C946" t="n">
@@ -43123,7 +43123,7 @@
       </c>
       <c r="B949" t="inlineStr">
         <is>
-          <t>River Plate</t>
+          <t>River Plate (URU)</t>
         </is>
       </c>
       <c r="C949" t="n">
@@ -43303,7 +43303,7 @@
       </c>
       <c r="B953" t="inlineStr">
         <is>
-          <t>River Plate</t>
+          <t>River Plate (URU)</t>
         </is>
       </c>
       <c r="C953" t="n">
@@ -45823,7 +45823,7 @@
       </c>
       <c r="B1009" t="inlineStr">
         <is>
-          <t>River Plate</t>
+          <t>River Plate (URU)</t>
         </is>
       </c>
       <c r="C1009" t="n">
@@ -46003,7 +46003,7 @@
       </c>
       <c r="B1013" t="inlineStr">
         <is>
-          <t>River Plate</t>
+          <t>River Plate (URU)</t>
         </is>
       </c>
       <c r="C1013" t="n">
@@ -47353,7 +47353,7 @@
       </c>
       <c r="B1043" t="inlineStr">
         <is>
-          <t>River Plate</t>
+          <t>River Plate (URU)</t>
         </is>
       </c>
       <c r="C1043" t="n">
@@ -56668,7 +56668,7 @@
       </c>
       <c r="B1250" t="inlineStr">
         <is>
-          <t>Universidad Católica</t>
+          <t>Universidad</t>
         </is>
       </c>
       <c r="C1250" t="n">
@@ -56893,7 +56893,7 @@
       </c>
       <c r="B1255" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Everton (CHI)</t>
         </is>
       </c>
       <c r="C1255" t="n">
@@ -57163,7 +57163,7 @@
       </c>
       <c r="B1261" t="inlineStr">
         <is>
-          <t>Universidad Católica</t>
+          <t>Universidad</t>
         </is>
       </c>
       <c r="C1261" t="n">
@@ -57208,7 +57208,7 @@
       </c>
       <c r="B1262" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Everton (CHI)</t>
         </is>
       </c>
       <c r="C1262" t="n">
@@ -68503,7 +68503,7 @@
       </c>
       <c r="B1513" t="inlineStr">
         <is>
-          <t>Universidad Católica</t>
+          <t>Universidad</t>
         </is>
       </c>
       <c r="C1513" t="n">
@@ -68908,7 +68908,7 @@
       </c>
       <c r="B1522" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Barcelona (ECU)</t>
         </is>
       </c>
       <c r="C1522" t="n">
@@ -69358,7 +69358,7 @@
       </c>
       <c r="B1532" t="inlineStr">
         <is>
-          <t>Universidad Católica</t>
+          <t>Universidad</t>
         </is>
       </c>
       <c r="C1532" t="n">
@@ -69808,7 +69808,7 @@
       </c>
       <c r="B1542" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Barcelona (ECU)</t>
         </is>
       </c>
       <c r="C1542" t="n">
@@ -69853,7 +69853,7 @@
       </c>
       <c r="B1543" t="inlineStr">
         <is>
-          <t>Universidad Católica</t>
+          <t>Universidad</t>
         </is>
       </c>
       <c r="C1543" t="n">
@@ -69898,7 +69898,7 @@
       </c>
       <c r="B1544" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Barcelona (ECU)</t>
         </is>
       </c>
       <c r="C1544" t="n">
@@ -70033,7 +70033,7 @@
       </c>
       <c r="B1547" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Barcelona (ECU)</t>
         </is>
       </c>
       <c r="C1547" t="n">

--- a/database/OLD/RAPRO22232023/FW/FW.xlsx
+++ b/database/OLD/RAPRO22232023/FW/FW.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -42268,7 +42268,7 @@
       </c>
       <c r="B930" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Liverpool (URU)</t>
         </is>
       </c>
       <c r="C930" t="n">
@@ -42988,7 +42988,7 @@
       </c>
       <c r="B946" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Liverpool (URU)</t>
         </is>
       </c>
       <c r="C946" t="n">
@@ -56893,7 +56893,7 @@
       </c>
       <c r="B1255" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Everton (CHI)</t>
         </is>
       </c>
       <c r="C1255" t="n">
@@ -57208,7 +57208,7 @@
       </c>
       <c r="B1262" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Everton (CHI)</t>
         </is>
       </c>
       <c r="C1262" t="n">
@@ -68908,7 +68908,7 @@
       </c>
       <c r="B1522" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Barcelona (ECU)</t>
         </is>
       </c>
       <c r="C1522" t="n">
@@ -69808,7 +69808,7 @@
       </c>
       <c r="B1542" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Barcelona (ECU)</t>
         </is>
       </c>
       <c r="C1542" t="n">
@@ -69898,7 +69898,7 @@
       </c>
       <c r="B1544" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Barcelona (ECU)</t>
         </is>
       </c>
       <c r="C1544" t="n">
@@ -70033,7 +70033,7 @@
       </c>
       <c r="B1547" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Barcelona (ECU)</t>
         </is>
       </c>
       <c r="C1547" t="n">

--- a/database/OLD/RAPRO22232023/FW/FW.xlsx
+++ b/database/OLD/RAPRO22232023/FW/FW.xlsx
@@ -44833,7 +44833,7 @@
       </c>
       <c r="B987" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Arsenal Sarandi</t>
         </is>
       </c>
       <c r="C987" t="n">
@@ -47083,7 +47083,7 @@
       </c>
       <c r="B1037" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Arsenal Sarandi</t>
         </is>
       </c>
       <c r="C1037" t="n">
@@ -47578,7 +47578,7 @@
       </c>
       <c r="B1048" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Arsenal Sarandi</t>
         </is>
       </c>
       <c r="C1048" t="n">
@@ -47668,7 +47668,7 @@
       </c>
       <c r="B1050" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Arsenal Sarandi</t>
         </is>
       </c>
       <c r="C1050" t="n">
